--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-DeepSeek/CoT_deepseek_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-DeepSeek/CoT_deepseek_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia-DeepSeek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B2A8BF-F825-483E-BD26-6043DEC606CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24379325-E98D-4A9E-8389-3DCD1CF273E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="438">
   <si>
     <t>Question</t>
   </si>
@@ -1363,9 +1363,6 @@
   </si>
   <si>
     <t>Ontology treated as Resource</t>
-  </si>
-  <si>
-    <t>Intent Error</t>
   </si>
 </sst>
 </file>
@@ -1735,9 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2622,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">

--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-DeepSeek/CoT_deepseek_dbpedia_results_analysis.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia-DeepSeek/CoT_deepseek_dbpedia_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\CoT-entity-aligned\CoT-wikidata-dbpedia-DeepSeek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24379325-E98D-4A9E-8389-3DCD1CF273E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB2532-F4AA-4EDC-89A9-372EAA6627A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="441">
   <si>
     <t>Question</t>
   </si>
@@ -349,330 +349,1020 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o2 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?o2 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film a dbo:Film . ?film dbo:director &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Musical ; dbo:musicBy dbr:Elton_John . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?developer WHERE { dbpedia:Skype dbo:developer ?developer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:SoccerClub . ?uri dbpedia-owl:league dbpedia-owl:Bundesliga . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?film dbo:director &lt;http://dbpedia.org/resource/William_Shatner&gt; ; a dbo:Film ; dbpprop:starring ?actor . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?mountain ?elevation WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpp: &lt;http://dbpedia.org/property/&gt; SELECT (COUNT(DISTINCT ?film) AS ?count) WHERE { ?film a dbo:Film . ?film dbpp:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . }</t>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o2 WHERE { &lt;http://dbpedia.org/resource/Penguin_Books&gt; dbo:founder ?o2 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film a dbo:Film . ?film dbo:director &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Musical ; dbo:musicBy dbr:Elton_John . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?developer WHERE { dbpedia:Skype dbo:developer ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbpedia-owl:SoccerClub . ?uri dbpedia-owl:league dbpedia-owl:Bundesliga . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?actor WHERE { ?film dbo:director &lt;http://dbpedia.org/resource/William_Shatner&gt; ; a dbo:Film ; dbpprop:starring ?actor . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT ?mountain ?elevation WHERE { ?mountain a dbpedia-owl:Mountain . ?mountain dbpedia-owl:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpp: &lt;http://dbpedia.org/property/&gt; SELECT (COUNT(DISTINCT ?film) AS ?count) WHERE { ?film a dbo:Film . ?film dbpp:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/ontology/starring&gt; ?uri &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . &lt;http://dbpedia.org/ontology/starring&gt; ?uri &lt;http://dbpedia.org/resource/Richard_Burton&gt; . } LIMIT 1000</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?developer WHERE { &lt;http://dbpedia.org/resource/Minecraft&gt; dbo:developer ?developer }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+prefix dbo: &lt;http://dbpedia.org/ontology/&gt; prefix dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?label ?date WHERE { ?album dbo:artist dbpedia:Elvis_Presley . ?album dbo:releaseDate ?date . ?album dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbpedia:Toy_Story dbo:runtime ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Bandleader . ?uri dbo:instrument dbr:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?film ?title WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; . ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?film rdfs:label ?title . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?year WHERE { dbr:Rachel_Stevens dbpedia:birthYear ?year }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?cause WHERE { ?s dbo:deathCause ?cause . } GROUP BY ?cause ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?height WHERE { &lt;http://dbpedia.org/resource/Yokohama_Marine_Tower&gt; dbo:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain ?elevation WHERE { ?mountain dbo:Mountains . ?mountain dbo:locatedInArea dbr:Italy . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Albert_Einstein dbpedia-owl:doctoralAdvisor ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?business WHERE { ?business dbo:owner &lt;http://dbpedia.org/resource/Donald_Trump&gt; . ?business a dbo:Organization . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?spouse WHERE { db:Tom_Cruise dbo:spouse ?spouse . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbr:Eurasia dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?author WHERE { dbpedia:The_Interpretation_of_Dreams dbo:author ?author . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?BirthDate WHERE { dbr:John_Adams dbo:birthDate ?BirthDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { dbo:European_Union dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?currency WHERE { dbr:China dbo:currency ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?deathDate WHERE { &lt;http://dbpedia.org/resource/William_Shakespeare&gt; dbo:deathDate ?deathDate . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?rocket WHERE { ?rocket a dbo:Rocket . ?rocket dbo:launchSite dbr:Baikonur_Cosmodrome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Island ; dbo:country dbr:Japan . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?developer WHERE { &lt;http://dbpedia.org/resource/World_of_Warcraft&gt; dbo:developer ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Company ; dbp:industry dbr:Advertising . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?university ?universityName WHERE { dbpedia:Angela_Merkel dbo:almaMater ?university . ?university rdfs:label ?universityName . FILTER(LANGMATCHES(LANG(?universityName), 'en')) } ORDER BY ?universityName</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?show WHERE { ?show a dbo:TelevisionShow . ?show dbo:starring db:Neil_Patrick_Harris . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film ontology:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt; . ?film a ontology:Film . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Mount_Everest&gt; dbo:locatedInArea ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?deathPlace WHERE { dbpedia:John_F._Kennedy dbo:deathPlace ?deathPlace . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbo:crosses ?river . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Swimmer ; dbo:birthPlace dbr:Moscow . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?s ?releaseDate WHERE { ?s rdf:type dbo:Film . ?s dbo:starring &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s dbo:releaseDate ?releaseDate . } ORDER BY DESC(?releaseDate) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?mountain ?elevation WHERE { ?mountain a dbo:Mountain . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Cairo&gt; dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?person WHERE { ?person a dbo:Person . ?person dbo:birthPlace dbr:Heraklion . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?child) AS ?count) WHERE { &lt;http://dbpedia.org/resource/Benjamin_Franklin&gt; dbo:child ?child . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?elevation WHERE { &lt;http://dbpedia.org/resource/Düsseldorf_Airport&gt; dbo:elevation ?elevation . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { &lt;http://dbpedia.org/resource/Mecca&gt; dbo:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; dbo:height ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?genre WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?genre . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?birthPlace WHERE { &lt;http://dbpedia.org/resource/Frank_Sinatra&gt; dbp:birthPlace ?birthPlace }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?city ?population WHERE { ?city rdf:type dbo:City . ?city dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?tvShow WHERE { ?tvShow a dbo:TelevisionShow . ?tvShow dbo:creator dbr:Walt_Disney . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri a dbo:Holiday . ?uri dbo:country dbpedia:Sweden . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?place WHERE { dbr:Abraham_Lincoln dbo:deathPlace ?place . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?capital WHERE { dbr:Himalayas dbp:country ?country . ?country dbo:capital ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; dbo:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { db:Michael_Jordan dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:director dbr:Clint_Eastwood . ?uri dbpedia:starring dbr:Clint_Eastwood . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { ?country a dbo:Country . ?country dbpedia:currency dbpedia:West_African_CFA_franc . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:Iraq dbo:populationTotal ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:PoliticalParty ; dbo:country dbpedia:Greece ; dbo:ideology dbpedia:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?actor ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?movement WHERE { dbr:The_Three_Dancers dbo:author ?painter . ?painter dbo:movement ?movement . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?actor ?name WHERE { ?actor a dbpedia-owl:Actor. ?actor dbpedia-owl:birthPlace ?birthPlace. ?birthPlace a dbpedia-owl:Country. ?birthPlace rdfs:label "Germany"@en. OPTIONAL { ?actor foaf:name ?name. FILTER(langMatches(lang(?name), 'en')) } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?designer WHERE { dbpedia:Brooklyn_Bridge dbo:architect ?designer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?composer WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; dbo:composer ?composer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:director dbpedia:Francis_Ford_Coppola . ?film rdf:type dbpedia-owl:Film . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?name WHERE { dbp:Adele dbo:birthName ?name. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri ?date WHERE { ?uri a dbo:Album . ?uri dbo:artist dbpedia:Queen_(band) . ?uri dbo:releaseDate ?date . } ORDER BY ?date LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/Czech_Republic&gt; dbo:currency ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?person WHERE { ?person dbo:birthPlace dbr:Vienna . ?person dbo:deathPlace dbr:Berlin . ?person a dbo:Person . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?bridge WHERE { ?bridge a dbo:Bridge ; dbo:crosses dbr:Seine . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?musicianUri (COUNT(DISTINCT ?book) AS ?bookCount) WHERE { ?book rdf:type dbpedia-owl:Book . ?musicianUri dbpedia-owl:author ?book . ?musicianUri rdf:type dbpedia-owl:Musician . } GROUP BY ?musicianUri ORDER BY DESC(?bookCount) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt; SELECT DISTINCT ?tvShow WHERE { ?tvShow a &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . ?tvShow dct:creator &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:occupation dbr:Writer . ?uri dbo:award dbr:Nobel_Prize_in_Literature . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?discoverer WHERE { dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:?res dbpedia-owl:occupation dbpedia:Bandleader . res:?res dbpedia-owl:instrument dbpedia:Trumpet . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbpedia:BasketballPlayer . ?uri dbpedia:height ?height . FILTER (?height &gt; 2) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?film WHERE { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { dbr:Canada dbo:capital ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?player WHERE { ?player rdf:type dbpedia-owl:SoccerPlayer . ?player dbpedia-owl:birthPlace dbpedia:Malta . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?capital WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; dbpo:capital ?capital }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdf:type dbo:ProgrammingLanguage . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Astronaut . { ?uri dbo:nationality dbr:Russia } UNION { ?uri dbo:nationality dbr:Soviet_Union } }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?creator WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; dbo:creator ?creator }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?population WHERE { &lt;http://dbpedia.org/resource/Mexico_City&gt; dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?creator WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?creator . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?number ?capitalLabel WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbo:capital ?capital . ?capital dbo:populationTotal ?number . ?capital rdfs:label ?capitalLabel . FILTER(lang(?capitalLabel) = 'en') FILTER(isLiteral(?number) &amp;&amp; datatype(?number) = xsd:integer) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?area WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?area . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?employees WHERE { &lt;http://dbpedia.org/resource/IBM&gt; dbo:numberOfEmployees ?employees . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?value WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?value . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film a dbo:Film . ?film dbo:starring &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . } ORDER BY ?film</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Film ; dbo:country dbr:Denmark . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Himalayas dbo:country ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Country . ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?almaMater WHERE { dbpedia:Angela_Merkel dbo:almaMater ?almaMater . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Goofy dbpedia-owl:creator ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Skype dbo:developer ?uri. }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerClub&gt; ; &lt;http://dbpedia.org/ontology/league&gt; &lt;http://dbpedia.org/resource/Bundesliga&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?x dbo:director res:William_Shatner ; dbo:starring ?uri }</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
   </si>
   <si>
     <t>SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; &lt;http://dbpedia.org/ontology/deathDate&gt; ?date }</t>
   </si>
   <si>
-    <t>SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/ontology/starring&gt; ?uri &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . &lt;http://dbpedia.org/ontology/starring&gt; ?uri &lt;http://dbpedia.org/resource/Richard_Burton&gt; . } LIMIT 1000</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?developer WHERE { &lt;http://dbpedia.org/resource/Minecraft&gt; dbo:developer ?developer }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/The_Lego_Movie&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?val }</t>
-  </si>
-  <si>
-    <t>prefix dbo: &lt;http://dbpedia.org/ontology/&gt; prefix dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?label ?date WHERE { ?album dbo:artist dbpedia:Elvis_Presley . ?album dbo:releaseDate ?date . ?album dbo:recordLabel ?label . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { dbpedia:Toy_Story dbo:runtime ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Bandleader . ?uri dbo:instrument dbr:Trumpet . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?film ?title WHERE { ?film a &lt;http://dbpedia.org/ontology/Film&gt; . ?film &lt;http://dbpedia.org/ontology/director&gt; &lt;http://dbpedia.org/resource/Garry_Marshall&gt; . ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?film rdfs:label ?title . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?year WHERE { dbr:Rachel_Stevens dbpedia:birthYear ?year }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?cause WHERE { ?s dbo:deathCause ?cause . } GROUP BY ?cause ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?height WHERE { &lt;http://dbpedia.org/resource/Yokohama_Marine_Tower&gt; dbo:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain ?elevation WHERE { ?mountain dbo:Mountains . ?mountain dbo:locatedInArea dbr:Italy . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Albert_Einstein dbpedia-owl:doctoralAdvisor ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?business WHERE { ?business dbo:owner &lt;http://dbpedia.org/resource/Donald_Trump&gt; . ?business a dbo:Organization . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?spouse WHERE { db:Tom_Cruise dbo:spouse ?spouse . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { dbr:Eurasia dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?author WHERE { dbpedia:The_Interpretation_of_Dreams dbo:author ?author . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?BirthDate WHERE { dbr:John_Adams dbo:birthDate ?BirthDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?population WHERE { dbo:European_Union dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?currency WHERE { dbr:China dbo:currency ?currency }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?deathDate WHERE { &lt;http://dbpedia.org/resource/William_Shakespeare&gt; dbo:deathDate ?deathDate . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?rocket WHERE { ?rocket a dbo:Rocket . ?rocket dbo:launchSite dbr:Baikonur_Cosmodrome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Island ; dbo:country dbr:Japan . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?developer WHERE { &lt;http://dbpedia.org/resource/World_of_Warcraft&gt; dbo:developer ?developer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Company ; dbp:industry dbr:Advertising . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?university ?universityName WHERE { dbpedia:Angela_Merkel dbo:almaMater ?university . ?university rdfs:label ?universityName . FILTER(LANGMATCHES(LANG(?universityName), 'en')) } ORDER BY ?universityName</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?show WHERE { ?show a dbo:TelevisionShow . ?show dbo:starring db:Neil_Patrick_Harris . }</t>
-  </si>
-  <si>
-    <t>PREFIX ontology: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film ontology:starring &lt;http://dbpedia.org/resource/Tom_Cruise&gt; . ?film a ontology:Film . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { &lt;http://dbpedia.org/resource/Mount_Everest&gt; dbo:locatedInArea ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?deathPlace WHERE { dbpedia:John_F._Kennedy dbo:deathPlace ?deathPlace . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?river WHERE { &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; dbo:crosses ?river . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Swimmer ; dbo:birthPlace dbr:Moscow . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?s ?releaseDate WHERE { ?s rdf:type dbo:Film . ?s dbo:starring &lt;http://dbpedia.org/resource/Alec_Guinness&gt; . ?s dbo:releaseDate ?releaseDate . } ORDER BY DESC(?releaseDate) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT ?mountain ?elevation WHERE { ?mountain a dbo:Mountain . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Cairo&gt; dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?person WHERE { ?person a dbo:Person . ?person dbo:birthPlace dbr:Heraklion . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?child) AS ?count) WHERE { &lt;http://dbpedia.org/resource/Benjamin_Franklin&gt; dbo:child ?child . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?elevation WHERE { &lt;http://dbpedia.org/resource/Düsseldorf_Airport&gt; dbo:elevation ?elevation . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { &lt;http://dbpedia.org/resource/Mecca&gt; dbo:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?height WHERE { &lt;http://dbpedia.org/resource/Claudia_Schiffer&gt; dbo:height ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/The_Pillars_of_the_Earth&gt; dbo:author ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?genre WHERE { &lt;http://dbpedia.org/resource/Lou_Reed&gt; dbo:genre ?genre . }</t>
-  </si>
-  <si>
-    <t>SELECT ?birthPlace WHERE { &lt;http://dbpedia.org/resource/Frank_Sinatra&gt; dbp:birthPlace ?birthPlace }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?city ?population WHERE { ?city rdf:type dbo:City . ?city dbo:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?tvShow WHERE { ?tvShow a dbo:TelevisionShow . ?tvShow dbo:creator dbr:Walt_Disney . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri a dbo:Holiday . ?uri dbo:country dbpedia:Sweden . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?place WHERE { dbr:Abraham_Lincoln dbo:deathPlace ?place . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?capital WHERE { dbr:Himalayas dbp:country ?country . ?country dbo:capital ?capital . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?country WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; dbo:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX db: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { db:Michael_Jordan dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbpedia:director dbr:Clint_Eastwood . ?uri dbpedia:starring dbr:Clint_Eastwood . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?country WHERE { ?country a dbo:Country . ?country dbpedia:currency dbpedia:West_African_CFA_franc . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?val WHERE { dbr:Iraq dbo:populationTotal ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Holiday . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:PoliticalParty ; dbo:country dbpedia:Greece ; dbo:ideology dbpedia:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?actor ?date WHERE { &lt;http://dbpedia.org/resource/Charmed&gt; &lt;http://dbpedia.org/ontology/starring&gt; ?actor . ?actor &lt;http://dbpedia.org/ontology/birthDate&gt; ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?movement WHERE { dbr:The_Three_Dancers dbo:author ?painter . ?painter dbo:movement ?movement . }</t>
-  </si>
-  <si>
-    <t>SELECT ?actor ?name WHERE { ?actor a dbpedia-owl:Actor. ?actor dbpedia-owl:birthPlace ?birthPlace. ?birthPlace a dbpedia-owl:Country. ?birthPlace rdfs:label "Germany"@en. OPTIONAL { ?actor foaf:name ?name. FILTER(langMatches(lang(?name), 'en')) } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?designer WHERE { dbpedia:Brooklyn_Bridge dbo:architect ?designer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?composer WHERE { &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; dbo:composer ?composer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:director dbpedia:Francis_Ford_Coppola . ?film rdf:type dbpedia-owl:Film . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?name WHERE { dbp:Adele dbo:birthName ?name. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri ?date WHERE { ?uri a dbo:Album . ?uri dbo:artist dbpedia:Queen_(band) . ?uri dbo:releaseDate ?date . } ORDER BY ?date LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?currency WHERE { &lt;http://dbpedia.org/resource/Czech_Republic&gt; dbo:currency ?currency . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?person WHERE { ?person dbo:birthPlace dbr:Vienna . ?person dbo:deathPlace dbr:Berlin . ?person a dbo:Person . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?bridge WHERE { ?bridge a dbo:Bridge ; dbo:crosses dbr:Seine . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?musicianUri (COUNT(DISTINCT ?book) AS ?bookCount) WHERE { ?book rdf:type dbpedia-owl:Book . ?musicianUri dbpedia-owl:author ?book . ?musicianUri rdf:type dbpedia-owl:Musician . } GROUP BY ?musicianUri ORDER BY DESC(?bookCount) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dct: &lt;http://purl.org/dc/terms/&gt; PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt; SELECT DISTINCT ?tvShow WHERE { ?tvShow a &lt;http://dbpedia.org/ontology/TelevisionShow&gt; . ?tvShow dct:creator &lt;http://dbpedia.org/resource/John_Cleese&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:occupation dbr:Writer . ?uri dbo:award dbr:Nobel_Prize_in_Literature . }</t>
-  </si>
-  <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?discoverer WHERE { dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:?res dbpedia-owl:occupation dbpedia:Bandleader . res:?res dbpedia-owl:instrument dbpedia:Trumpet . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbpedia:BasketballPlayer . ?uri dbpedia:height ?height . FILTER (?height &gt; 2) }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?film &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Gere&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { dbr:Canada dbo:capital ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?player WHERE { ?player rdf:type dbpedia-owl:SoccerPlayer . ?player dbpedia-owl:birthPlace dbpedia:Malta . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?capital WHERE { &lt;http://dbpedia.org/resource/Cameroon&gt; dbpo:capital ?capital }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT (COUNT(DISTINCT ?sub) AS ?count) WHERE { ?sub rdf:type dbo:ProgrammingLanguage . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Astronaut . { ?uri dbo:nationality dbr:Russia } UNION { ?uri dbo:nationality dbr:Soviet_Union } }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?creator WHERE { &lt;http://dbpedia.org/resource/Family_Guy&gt; dbo:creator ?creator }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?population WHERE { &lt;http://dbpedia.org/resource/Mexico_City&gt; dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?creator WHERE { &lt;http://dbpedia.org/resource/Batman&gt; dbo:creator ?creator . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?number ?capitalLabel WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbo:capital ?capital . ?capital dbo:populationTotal ?number . ?capital rdfs:label ?capitalLabel . FILTER(lang(?capitalLabel) = 'en') FILTER(isLiteral(?number) &amp;&amp; datatype(?number) = xsd:integer) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?area WHERE { dbpedia:North_Rhine-Westphalia dbo:areaTotal ?area . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?employees WHERE { &lt;http://dbpedia.org/resource/IBM&gt; dbo:numberOfEmployees ?employees . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?value WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; &lt;http://dbpedia.org/ontology/budget&gt; ?value . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?film WHERE { ?film a dbo:Film . ?film dbo:starring &lt;http://dbpedia.org/resource/Jesse_Eisenberg&gt; . } ORDER BY ?film</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Film ; dbo:country dbr:Denmark . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?country WHERE { dbpedia:Himalayas dbo:country ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Country . ?uri dbo:areaTotal ?area . } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?almaMater WHERE { dbpedia:Angela_Merkel dbo:almaMater ?almaMater . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { dbpedia:Goofy dbpedia-owl:creator ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Stanley_Kubrick }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Musical ; dbo:musicBy res:Elton_John }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { res:Skype dbo:developer ?uri. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/SoccerClub&gt; ; &lt;http://dbpedia.org/ontology/league&gt; &lt;http://dbpedia.org/resource/Bundesliga&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?x dbo:director res:William_Shatner ; dbo:starring ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri a &lt;http://dbpedia.org/ontology/Mountain&gt; ; &lt;http://dbpedia.org/ontology/elevation&gt; ?elevation } ORDER BY DESC(?elevation) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri a &lt;http://dbpedia.org/ontology/Film&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt; }</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; ; &lt;http://dbpedia.org/ontology/starring&gt; &lt;http://dbpedia.org/resource/Richard_Burton&gt; }</t>
   </si>
   <si>
@@ -1078,6 +1768,9 @@
     <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
   </si>
   <si>
+    <t>['Hoboken, New Jersey, U.S.']</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Chagan_(closed_city)', '0']</t>
   </si>
   <si>
@@ -1126,6 +1819,9 @@
     <t>['http://dbpedia.org/resource/Passerelle_Debilly', 'http://dbpedia.org/resource/Passerelle_Simone-de-Beauvoir', 'http://dbpedia.org/resource/Pont_Alexandre_III', 'http://dbpedia.org/resource/Pont_amont', 'http://dbpedia.org/resource/Pont_au_Change', 'http://dbpedia.org/resource/Pont_au_Double', 'http://dbpedia.org/resource/Pont_aval', 'http://dbpedia.org/resource/Pont_Charles-de-Gaulle', "http://dbpedia.org/resource/Pont_d'Austerlitz", "http://dbpedia.org/resource/Pont_d'Iéna", 'http://dbpedia.org/resource/Pont_de_Bercy', 'http://dbpedia.org/resource/Pont_de_Bir-Hakeim', 'http://dbpedia.org/resource/Pont_de_Brotonne', 'http://dbpedia.org/resource/Pont_de_Grenelle', "http://dbpedia.org/resource/Pont_de_l'Alma", "http://dbpedia.org/resource/Pont_de_l'Archevêché", 'http://dbpedia.org/resource/Pont_de_la_Concorde_(Paris)', 'http://dbpedia.org/resource/Pont_de_la_Tournelle', 'http://dbpedia.org/resource/Pont_de_Neuilly', 'http://dbpedia.org/resource/Pont_de_Normandie', 'http://dbpedia.org/resource/Pont_de_Sully', 'http://dbpedia.org/resource/Pont_de_Tolbiac', 'http://dbpedia.org/resource/Pont_des_Invalides', 'http://dbpedia.org/resource/Pont_du_Carrousel', 'http://dbpedia.org/resource/Pont_du_Garigliano', 'http://dbpedia.org/resource/Pont_Gustave-Flaubert', 'http://dbpedia.org/resource/Pont_Louis-Philippe', 'http://dbpedia.org/resource/Pont_Marie', 'http://dbpedia.org/resource/Pont_National', 'http://dbpedia.org/resource/Pont_Neuf', 'http://dbpedia.org/resource/Pont_Notre-Dame', 'http://dbpedia.org/resource/Pont_Rouelle', 'http://dbpedia.org/resource/Pont_Royal', "http://dbpedia.org/resource/Port_à_l'Anglais_Bridge", "http://dbpedia.org/resource/Viaduc_d'Austerlitz"]</t>
   </si>
   <si>
+    <t>['http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(basketball)', 'http://dbpedia.org/resource/Ben_Davis_(basketball)', 'http://dbpedia.org/resource/Ben_Eisenhardt', 'http://dbpedia.org/resource/Ben_Gillery', 'http://dbpedia.org/resource/Ben_Handlogten', 'http://dbpedia.org/resource/Ben_Lammers', 'http://dbpedia.org/resource/Ben_Lawson_(basketball)', 'http://dbpedia.org/resource/Ben_McCauley', 'http://dbpedia.org/resource/Ben_McDonald_(basketball)', 'http://dbpedia.org/resource/Ben_Moore_(basketball)', 'http://dbpedia.org/resource/Ben_Poquette', 'http://dbpedia.org/resource/Ben_Simmons', 'http://dbpedia.org/resource/Ben_Strong_(basketball)', 'http://dbpedia.org/resource/Ben_Sullivan_(basketball)', 'http://dbpedia.org/resource/Ben_Vander_Plas', 'http://dbpedia.org/resource/Ben_Wallace_(basketball)', 'http://dbpedia.org/resource/Ben_Wilson_(basketball)', 'http://dbpedia.org/resource/Benjamin_Eze', 'http://dbpedia.org/resource/Benjamin_Ortner', 'http://dbpedia.org/resource/Bennett_Davison', 'http://dbpedia.org/resource/Bennett_Koch', 'http://dbpedia.org/resource/Bennie_Boatwright', 'http://dbpedia.org/resource/Bennie_Swain', 'http://dbpedia.org/resource/Benny_Williams_(basketball)', 'http://dbpedia.org/resource/Benoit_Benjamin', 'http://dbpedia.org/resource/Berend_Weijs', 'http://dbpedia.org/resource/Berk_Demir', 'http://dbpedia.org/resource/Berkan_Durmaz', 'http://dbpedia.org/resource/Berkay_Candan', 'http://dbpedia.org/resource/Bernadett_Határ', 'http://dbpedia.org/resource/Bernard_James', 'http://dbpedia.org/resource/Bernard_King', 'http://dbpedia.org/resource/Bernard_Toone', 'http://dbpedia.org/resource/Berni_Tamames', 'http://dbpedia.org/resource/Bernie_Harris_(basketball)', 'http://dbpedia.org/resource/Betinho_(basketball)', 'http://dbpedia.org/resource/Bevo_Francis', 'http://dbpedia.org/resource/Bevo_Nordmann', 'http://dbpedia.org/resource/Big_Moose_Meyer', 'http://dbpedia.org/resource/Bill_Allen_(basketball)', 'http://dbpedia.org/resource/Bill_Amis', 'http://dbpedia.org/resource/Bill_Buntin', 'http://dbpedia.org/resource/Bill_Bunting', 'http://dbpedia.org/resource/Bill_Campion', 'http://dbpedia.org/resource/Bill_Cartwright', 'http://dbpedia.org/resource/Bill_Chmielewski', 'http://dbpedia.org/resource/Bill_Coven', 'http://dbpedia.org/resource/Bill_Curley', 'http://dbpedia.org/resource/Bill_Dinwiddie', 'http://dbpedia.org/resource/Bill_Garner_(basketball)', 'http://dbpedia.org/resource/Bill_Garnett', 'http://dbpedia.org/resource/Bill_Gossett', 'http://dbpedia.org/resource/Bill_Hanzlik', 'http://dbpedia.org/resource/Bill_Henry_(basketball)', 'http://dbpedia.org/resource/Bill_Hewitt_(basketball)', 'http://dbpedia.org/resource/Bill_Hosket_Jr.', 'http://dbpedia.org/resource/Bill_Jones_(basketball,_born_1966)', 'http://dbpedia.org/resource/Bill_Laimbeer', 'http://dbpedia.org/resource/Bill_Logan_(basketball)', 'http://dbpedia.org/resource/Bill_Martin_(basketball)', 'http://dbpedia.org/resource/Bill_Mayfield', 'http://dbpedia.org/resource/Bill_McGill', 'http://dbpedia.org/resource/Bill_Melis', 'http://dbpedia.org/resource/Bill_Newton_(basketball)', 'http://dbpedia.org/resource/Bill_Roberts_(basketball)', 'http://dbpedia.org/resource/Bill_Robinzine', 'http://dbpedia.org/resource/Bill_Russell', 'http://dbpedia.org/resource/Bill_Sattler', 'http://dbpedia.org/resource/Bill_Schrader', 'http://dbpedia.org/resource/Bill_Spivey', 'http://dbpedia.org/resource/Bill_Stricker', 'http://dbpedia.org/resource/Bill_Thieben', 'http://dbpedia.org/resource/Bill_Turner_(basketball)', 'http://dbpedia.org/resource/Bill_Uhl', 'http://dbpedia.org/resource/Bill_Varner', 'http://dbpedia.org/resource/Bill_Walton', 'http://dbpedia.org/resource/Bill_Wennington', 'http://dbpedia.org/resource/Bill_Willoughby', 'http://dbpedia.org/resource/Billy_McShepard', 'http://dbpedia.org/resource/Billy_Owens', 'http://dbpedia.org/resource/Billy_Paultz', 'http://dbpedia.org/resource/Billy_Preston_(basketball)', 'http://dbpedia.org/resource/Billy_Singleton', 'http://dbpedia.org/resource/Billy_Thompson_(basketball)', 'http://dbpedia.org/resource/Billy_White_(basketball)', 'http://dbpedia.org/resource/Bismack_Biyombo', 'http://dbpedia.org/resource/Bison_Dele', 'http://dbpedia.org/resource/Blagota_Sekulić', 'http://dbpedia.org/resource/Blair_Rasmussen', 'http://dbpedia.org/resource/Blake_Aoki_Borysewicz', 'http://dbpedia.org/resource/Blake_Griffin', 'http://dbpedia.org/resource/Blerim_Mazreku', 'http://dbpedia.org/resource/Bo_Ellis__Bo_Ellis__1', 'http://dbpedia.org/resource/Bo_Outlaw', 'http://dbpedia.org/resource/Bob_Allen_(basketball)', 'http://dbpedia.org/resource/Bob_Armstrong_(basketball,_born_1933)', 'http://dbpedia.org/resource/Bob_Bedell', 'http://dbpedia.org/resource/Bob_Bigelow', 'http://dbpedia.org/resource/Bob_Boozer', 'http://dbpedia.org/resource/Bob_Brown_(basketball,_born_1921)', 'http://dbpedia.org/resource/Bob_Burrow', 'http://dbpedia.org/resource/Bob_Christian_(basketball)', 'http://dbpedia.org/resource/Bob_Cluggish', 'http://dbpedia.org/resource/Bob_Davis_(basketball_player)__Bob_Davis__1', 'http://dbpedia.org/resource/Bob_Dykstra', 'http://dbpedia.org/resource/Bob_Elliott_(basketball)', 'http://dbpedia.org/resource/Bob_Ferry', 'http://dbpedia.org/resource/Bob_Ford_(basketball)', 'http://dbpedia.org/resource/Bob_Greacen', 'http://dbpedia.org/resource/Bob_Hahn', 'http://dbpedia.org/resource/Bob_Harris_(basketball)', 'http://dbpedia.org/resource/Bob_Hogsett', 'http://dbpedia.org/resource/Bob_Hopkins__Bob_Hopkins__1', 'http://dbpedia.org/resource/Bob_Houbregs', 'http://dbpedia.org/resource/Bob_Kauffman', 'http://dbpedia.org/resource/Bob_Kurland', 'http://dbpedia.org/resource/Bob_Lanier', 'http://dbpedia.org/resource/Bob_Lavoy', 'http://dbpedia.org/resource/Bob_Lienhard', 'http://dbpedia.org/resource/Bob_Love', 'http://dbpedia.org/resource/Bob_Martin_(basketball)', 'http://dbpedia.org/resource/Bob_Mattick', 'http://dbpedia.org/resource/Bob_McAdoo', 'http://dbpedia.org/resource/Bob_McCurdy', 'http://dbpedia.org/resource/Bob_McKeen', 'http://dbpedia.org/resource/Bob_Miller_(basketball)', 'http://dbpedia.org/resource/Bob_Morse', 'http://dbpedia.org/resource/Bob_Myers', 'http://dbpedia.org/resource/Bob_Nash_(basketball)', 'http://dbpedia.org/resource/Bob_Netolicky', 'http://dbpedia.org/resource/Bob_Pelkington', 'http://dbpedia.org/resource/Bob_Pettit', 'http://dbpedia.org/resource/Bob_Riley_(basketball)', 'http://dbpedia.org/resource/Bob_Rule', 'http://dbpedia.org/resource/Bob_Spessard', 'http://dbpedia.org/resource/Bob_Thornton', 'http://dbpedia.org/resource/Bob_Woollard', 'http://dbpedia.org/resource/Boban_Janković', 'http://dbpedia.org/resource/Boban_Marjanović', 'http://dbpedia.org/resource/Bobby_Cattage', 'http://dbpedia.org/resource/Bobby_Croft', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1951)', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1984)', 'http://dbpedia.org/resource/Bobby_Lee_Hurt', 'http://dbpedia.org/resource/Bobby_Portis', 'http://dbpedia.org/resource/Bobby_Simmons', 'http://dbpedia.org/resource/Bobby_Speight', 'http://dbpedia.org/resource/Bobby_Watson_(basketball_coach)', 'http://dbpedia.org/resource/Bobby_Wilson_(basketball,_born_1944)', 'http://dbpedia.org/resource/Bojan_Subotić', 'http://dbpedia.org/resource/Bol_Bol', 'http://dbpedia.org/resource/Bonel_Balingit', "http://dbpedia.org/resource/Boniface_N'Dong", 'http://dbpedia.org/resource/Boo_Jackson__Boo_Jackson__1', 'http://dbpedia.org/resource/Bora_Paçun', 'http://dbpedia.org/resource/Boris_Diaw', 'http://dbpedia.org/resource/Boštjan_Nachbar', 'http://dbpedia.org/resource/Boubacar_Aw', 'http://dbpedia.org/resource/Boubacar_Coly', 'http://dbpedia.org/resource/Boubacar_Toure', 'http://dbpedia.org/resource/Brad_Branson', 'http://dbpedia.org/resource/Brad_Daugherty_(basketball)', 'http://dbpedia.org/resource/Brad_Lohaus', 'http://dbpedia.org/resource/Brad_Miley', 'http://dbpedia.org/resource/Brad_Miller_(basketball)', 'http://dbpedia.org/resource/Brad_Robinson_(basketball)', 'http://dbpedia.org/resource/Brad_Waldow', 'http://dbpedia.org/resource/Brad_Wright_(basketball)', 'http://dbpedia.org/resource/Bradley_Buckman', 'http://dbpedia.org/resource/Brady_Manek', 'http://dbpedia.org/resource/Brandan_Wright', 'http://dbpedia.org/resource/Brandon_Bass', 'http://dbpedia.org/resource/Brandon_Bowman', 'http://dbpedia.org/resource/Brandon_Clarke', 'http://dbpedia.org/resource/Brandon_Cole', 'http://dbpedia.org/resource/Brandon_Costner', 'http://dbpedia.org/resource/Brandon_Davies', 'http://dbpedia.org/resource/Brandon_Gilbeck', 'http://dbpedia.org/resource/Brandon_Hunter', 'http://dbpedia.org/resource/Brandon_Huntley-Hatfield', 'http://dbpedia.org/resource/Brandon_Ingram', 'http://dbpedia.org/resource/Brandon_McCoy', 'http://dbpedia.org/resource/Brandon_Miller_(basketball,_born_2002)', 'http://dbpedia.org/resource/Brandon_Penn', 'http://dbpedia.org/resource/Brandon_Sebirumbi', 'http://dbpedia.org/resource/Brandon_Slater', 'http://dbpedia.org/resource/Brandon_Ubel', 'http://dbpedia.org/resource/Brandon_Wallace', 'http://dbpedia.org/resource/Brant_Weidner', 'http://dbpedia.org/resource/Braxton_Key', 'http://dbpedia.org/resource/Brayon_Blake', 'http://dbpedia.org/resource/Brekkott_Chapman', 'http://dbpedia.org/resource/Brendan_Haywood', 'http://dbpedia.org/resource/Brendan_Lane_(basketball)', 'http://dbpedia.org/resource/Brennan_McElroy', 'http://dbpedia.org/resource/Brent_Barry', 'http://dbpedia.org/resource/Brent_Petway', 'http://dbpedia.org/resource/Brent_Scott_(basketball)', 'http://dbpedia.org/resource/Brent_Wright', 'http://dbpedia.org/resource/Bret_Brielmaier', 'http://dbpedia.org/resource/Brett_Roberts', 'http://dbpedia.org/resource/Brett_Szabo', 'http://dbpedia.org/resource/Brett_Vroman', 'http://dbpedia.org/resource/Brian_Beshara', 'http://dbpedia.org/resource/Brian_Butch', 'http://dbpedia.org/resource/Brian_Cardinal', 'http://dbpedia.org/resource/Brian_Cook_(basketball)', 'http://dbpedia.org/resource/Brian_Cusworth', 'http://dbpedia.org/resource/Brian_Davis_(basketball)', 'http://dbpedia.org/resource/Brian_Evans_(basketball)', 'http://dbpedia.org/resource/Brian_Fitzpatrick_(basketball)', 'http://dbpedia.org/resource/Brian_Grant', 'http://dbpedia.org/resource/Brian_Jackson_(basketball)', 'http://dbpedia.org/resource/Brian_Kerle', 'http://dbpedia.org/resource/Brian_Martin_(basketball)', 'http://dbpedia.org/resource/Brian_Oliver_(basketball,_born_1990)', 'http://dbpedia.org/resource/Brian_Quinnett', 'http://dbpedia.org/resource/Brian_Qvale', 'http://dbpedia.org/resource/Brian_Randle__Brian_Randle__1', 'http://dbpedia.org/resource/Brian_Rowsom', 'http://dbpedia.org/resource/Brian_Scalabrine', 'http://dbpedia.org/resource/Brian_Skinner', 'http://dbpedia.org/resource/Brian_Zoubek', 'http://dbpedia.org/resource/Brice_Assie__Brice_Assie__1', 'http://dbpedia.org/resource/Brice_Johnson', 'http://dbpedia.org/resource/Brice_Vounang', 'http://dbpedia.org/resource/Bright_Akhuetie', 'http://dbpedia.org/resource/Britton_Johnsen', 'http://dbpedia.org/resource/Brock_Motum', 'http://dbpedia.org/resource/Brook_Lopez', 'http://dbpedia.org/resource/Bruce_Bolden', 'http://dbpedia.org/resource/Bruce_Bowen', 'http://dbpedia.org/resource/Bruce_Flowers', 'http://dbpedia.org/resource/Bruce_Kuczenski', 'http://dbpedia.org/resource/Bruce_Seals', 'http://dbpedia.org/resource/Bruno_Boin', 'http://dbpedia.org/resource/Bruno_Caboclo', 'http://dbpedia.org/resource/Bruno_Coqueran', 'http://dbpedia.org/resource/Bruno_Fernando', 'http://dbpedia.org/resource/Bruno_Šundov', 'http://dbpedia.org/resource/Bruno-Nazaire_Kongaouin', 'http://dbpedia.org/resource/Bryan_Bracey', 'http://dbpedia.org/resource/Bryan_Davis_(basketball)', 'http://dbpedia.org/resource/Bryant_Dunston', 'http://dbpedia.org/resource/Bryant_Reeves', 'http://dbpedia.org/resource/Bryant_Smith', 'http://dbpedia.org/resource/Bryce_Douvier', 'http://dbpedia.org/resource/Bryce_Washington_(basketball)', 'http://dbpedia.org/resource/Bryon_Russell', 'http://dbpedia.org/resource/Bryson_Williams', '</t>
+  </si>
+  <si>
     <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
   </si>
   <si>
@@ -1268,9 +1964,6 @@
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
-  </si>
-  <si>
-    <t>['http://dbpedia.org/resource/A._J._Bramlett', 'http://dbpedia.org/resource/A._J._Brodeur', 'http://dbpedia.org/resource/A._J._Davis_(basketball)', 'http://dbpedia.org/resource/A._J._Edu', 'http://dbpedia.org/resource/A._J._Granger', 'http://dbpedia.org/resource/A._J._Hammons', 'http://dbpedia.org/resource/A._W._Davis', 'http://dbpedia.org/resource/A._W._Holt', 'http://dbpedia.org/resource/A.C._Green', "http://dbpedia.org/resource/A'Darius_Pegues", 'http://dbpedia.org/resource/Aamir_Simms', 'http://dbpedia.org/resource/Aaric_Murray', 'http://dbpedia.org/resource/Aaron_Anderson_(basketball)', 'http://dbpedia.org/resource/Aaron_Epps', 'http://dbpedia.org/resource/Aaron_Falzon', 'http://dbpedia.org/resource/Aaron_Gordon', 'http://dbpedia.org/resource/Aaron_Gray', 'http://dbpedia.org/resource/Aaron_Harper_(basketball)', 'http://dbpedia.org/resource/Aaron_James_(basketball)', 'http://dbpedia.org/resource/Aaron_McGhee', 'http://dbpedia.org/resource/Aaron_White_(basketball)', 'http://dbpedia.org/resource/Aaron_Williams_(basketball)', 'http://dbpedia.org/resource/Abdel_Kader_Sylla', 'http://dbpedia.org/resource/Abdelrahman_Abdelhaleem', 'http://dbpedia.org/resource/Abdou_Badji', 'http://dbpedia.org/resource/Abdoul_Karim_Coulibaly', 'http://dbpedia.org/resource/Abdul_Jeelani', 'http://dbpedia.org/resource/Abdul_Shamsid-Deen', 'http://dbpedia.org/resource/Abdul_Yahaya', 'http://dbpedia.org/resource/Abdul-Malik_Abu', 'http://dbpedia.org/resource/Abdullah_Matalkeh', 'http://dbpedia.org/resource/Abdullahi_Kuso', 'http://dbpedia.org/resource/Abibou_Toure', 'http://dbpedia.org/resource/Abu_Kigab', 'http://dbpedia.org/resource/Ace_Custis', 'http://dbpedia.org/resource/Ace_Gruenig', 'http://dbpedia.org/resource/Acie_Earl', 'http://dbpedia.org/resource/AD_Smith', 'http://dbpedia.org/resource/Adam_Chubb', 'http://dbpedia.org/resource/Adam_Hrycaniuk', 'http://dbpedia.org/resource/Adam_Keefe_(basketball)', 'http://dbpedia.org/resource/Adam_Kemp', 'http://dbpedia.org/resource/Adam_Koch', 'http://dbpedia.org/resource/Adam_Łapeta', 'http://dbpedia.org/resource/Adam_Morrison', 'http://dbpedia.org/resource/Adam_Parada', 'http://dbpedia.org/resource/Adam_Pecháček', 'http://dbpedia.org/resource/Adam_Woodbury', 'http://dbpedia.org/resource/Adama_Diakhite', 'http://dbpedia.org/resource/Adama_Sanogo', 'http://dbpedia.org/resource/Adarrial_Smylie', 'http://dbpedia.org/resource/Adem_Bona', 'http://dbpedia.org/resource/Adem_Ören', 'http://dbpedia.org/resource/Adnan_Hodžić', 'http://dbpedia.org/resource/Adonal_Foyle', 'http://dbpedia.org/resource/Adreian_Payne', 'http://dbpedia.org/resource/Adrian_Branch', 'http://dbpedia.org/resource/Adrian_Caldwell', 'http://dbpedia.org/resource/Adrian_Moss_(basketball,_born_1981)', 'http://dbpedia.org/resource/Adrián_Zamora', 'http://dbpedia.org/resource/Aerick_Sanders', 'http://dbpedia.org/resource/Agustín_Caffaro', 'http://dbpedia.org/resource/Aher_Uguak', 'http://dbpedia.org/resource/Ahmad_Ibrahim_(basketball)', 'http://dbpedia.org/resource/Ahmad_Nivins', 'http://dbpedia.org/resource/Ahsan_Asadullah', 'http://dbpedia.org/resource/Aidan_Igiehon', 'http://dbpedia.org/resource/Ajak_Magot', 'http://dbpedia.org/resource/Ajdin_Penava', 'http://dbpedia.org/resource/Ajou_Deng', 'http://dbpedia.org/resource/Akin_Akingbala', 'http://dbpedia.org/resource/Al_Beard', 'http://dbpedia.org/resource/Al_Bunge', 'http://dbpedia.org/resource/Al_Carlson_(basketball)', 'http://dbpedia.org/resource/Al_Cueto', 'http://dbpedia.org/resource/Al_Fleming_(basketball)', 'http://dbpedia.org/resource/Al_Harrington', 'http://dbpedia.org/resource/Al_Henry', 'http://dbpedia.org/resource/Al_Horford', 'http://dbpedia.org/resource/Al_Jefferson', 'http://dbpedia.org/resource/Al_Miksis', 'http://dbpedia.org/resource/Al_Salvadori', 'http://dbpedia.org/resource/Al_Sanders_(basketball)', 'http://dbpedia.org/resource/Al_Thornton', 'http://dbpedia.org/resource/Al_Tucker', 'http://dbpedia.org/resource/Al-Farouq_Aminu', 'http://dbpedia.org/resource/Alaa_Abdelnaby', 'http://dbpedia.org/resource/Alade_Aminu', 'http://dbpedia.org/resource/Alain_Koffi', 'http://dbpedia.org/resource/Alan_Hardy_(basketball)', 'http://dbpedia.org/resource/Alan_Henderson', 'http://dbpedia.org/resource/Alan_Ogg', 'http://dbpedia.org/resource/Alan_Wiggins_Jr.', 'http://dbpedia.org/resource/Alan_Williams_(basketball)', 'http://dbpedia.org/resource/Albert_Almanza', 'http://dbpedia.org/resource/Albert_Burditt', 'http://dbpedia.org/resource/Albert_Culton', 'http://dbpedia.org/resource/Alberto_Corbacho', 'http://dbpedia.org/resource/Alberto_Herreros', 'http://dbpedia.org/resource/Alec_Brown', 'http://dbpedia.org/resource/Alec_Kessler', 'http://dbpedia.org/resource/Alec_Peters', 'http://dbpedia.org/resource/Aleem_Ford', 'http://dbpedia.org/resource/Alekos_Petroulas', 'http://dbpedia.org/resource/Aleks_Marić', 'http://dbpedia.org/resource/Aleksandar_Lazić', 'http://dbpedia.org/resource/Aleksandar_Pavlović', 'http://dbpedia.org/resource/Aleksandar_Radojević', 'http://dbpedia.org/resource/Aleksandar_Šterjov', 'http://dbpedia.org/resource/Aleksandar_Todorović', 'http://dbpedia.org/resource/Aleksandar_Vezenkov', 'http://dbpedia.org/resource/Aleksandar_Zečević_(basketball,_born_1996)', 'http://dbpedia.org/resource/Aleksandr_Boloshev', 'http://dbpedia.org/resource/Aleksej_Pokuševski', 'http://dbpedia.org/resource/Alen_Smailagić', 'http://dbpedia.org/resource/Alessandro_Tonolli', 'http://dbpedia.org/resource/Alex_Chubrevich', 'http://dbpedia.org/resource/Alex_Crisano', 'http://dbpedia.org/resource/Alex_Davis_(basketball)', 'http://dbpedia.org/resource/Alex_English', 'http://dbpedia.org/resource/Alex_Galindo', 'http://dbpedia.org/resource/Alex_Gilbert_(basketball)', 'http://dbpedia.org/resource/Alex_Groza', 'http://dbpedia.org/resource/Alex_Hannum', 'http://dbpedia.org/resource/Alex_Holcombe', 'http://dbpedia.org/resource/Alex_Jensen', 'http://dbpedia.org/resource/Alex_Jones_(basketball)', 'http://dbpedia.org/resource/Alex_King_(basketball)', 'http://dbpedia.org/resource/Alex_Kirk', 'http://dbpedia.org/resource/Alex_Len', 'http://dbpedia.org/resource/Alex_Liatsos', 'http://dbpedia.org/resource/Álex_Mumbrú', 'http://dbpedia.org/resource/Alex_Murphy_(basketball)', 'http://dbpedia.org/resource/Alex_Oriakhi', 'http://dbpedia.org/resource/Alex_Poythress', 'http://dbpedia.org/resource/Alex_Rosenberg_(basketball)', 'http://dbpedia.org/resource/Alex_Stepheson', 'http://dbpedia.org/resource/Alex_Stivrins', 'http://dbpedia.org/resource/Álex_Suárez_(basketball)', 'http://dbpedia.org/resource/Alex_Tyus', 'http://dbpedia.org/resource/Alexander_Belov', 'http://dbpedia.org/resource/Alexander_Ermolinskij', 'http://dbpedia.org/resource/Alexander_Johnson_(basketball)__Alexander_Johnson__1', 'http://dbpedia.org/resource/Alexander_Kühl', 'http://dbpedia.org/resource/Alexander_Lokhmanchuk', 'http://dbpedia.org/resource/Alexander_Nelcha', 'http://dbpedia.org/resource/Alexander_Petrenko', 'http://dbpedia.org/resource/Alexander_Sizonenko', 'http://dbpedia.org/resource/Alexander_Volkov_(basketball)', 'http://dbpedia.org/resource/Alexander_Zakharov_(basketball)', 'http://dbpedia.org/resource/Alexandros_Sigkounas', 'http://dbpedia.org/resource/Alexandros_Varitimiadis', 'http://dbpedia.org/resource/Alexandru_Olah', 'http://dbpedia.org/resource/Alexis_Ajinça', 'http://dbpedia.org/resource/Alexis_Wangmene', 'http://dbpedia.org/resource/Alexis_Yetna', 'http://dbpedia.org/resource/Alfa_Ntiallo', 'http://dbpedia.org/resource/Alfons_Alzamora', 'http://dbpedia.org/resource/Alfonso_Reyes_(basketball)', 'http://dbpedia.org/resource/Alfonzo_McKinnie', 'http://dbpedia.org/resource/Alfred_Aboya', 'http://dbpedia.org/resource/Ali_Demić', 'http://dbpedia.org/resource/Ali_Doraghi', 'http://dbpedia.org/resource/Ali_Fakhreddine', 'http://dbpedia.org/resource/Ali_Haidar_(basketball)', 'http://dbpedia.org/resource/Ali_Jamal_Zaghab', 'http://dbpedia.org/resource/Ali_Traoré', 'http://dbpedia.org/resource/Alihan_Demir', 'http://dbpedia.org/resource/Alison_Bales', 'http://dbpedia.org/resource/Alize_Johnson', 'http://dbpedia.org/resource/Allan_Bristow', 'http://dbpedia.org/resource/Alonzo_Mourning', 'http://dbpedia.org/resource/Alperen_Şengün', 'http://dbpedia.org/resource/Alpha_Diallo_(basketball,_born_1997)', 'http://dbpedia.org/resource/Alpha_Kaba', 'http://dbpedia.org/resource/Alton_Ford', 'http://dbpedia.org/resource/Alton_Lister', 'http://dbpedia.org/resource/Alvan_Adams', 'http://dbpedia.org/resource/Álvaro_Teherán', 'http://dbpedia.org/resource/Alvin_Heggs', 'http://dbpedia.org/resource/Alvin_Jones_(basketball)', 'http://dbpedia.org/resource/Alvin_Scott', 'http://dbpedia.org/resource/Alzhan_Zharmukhamedov', 'http://dbpedia.org/resource/Amadou_Aboubakar_Zaki', 'http://dbpedia.org/resource/Amal_McCaskill', 'http://dbpedia.org/resource/Amanze_Egekeze', "http://dbpedia.org/resource/Amar'e_Stoudemire", 'http://dbpedia.org/resource/Amara_Sy', "http://dbpedia.org/resource/Amath_M'Baye", 'http://dbpedia.org/resource/Amen_Thompson', 'http://dbpedia.org/resource/Amida_Brimah', 'http://dbpedia.org/resource/Amile_Jefferson', 'http://dbpedia.org/resource/Amir_Coffey', 'http://dbpedia.org/resource/Amir_Johnson', 'http://dbpedia.org/resource/Amir_Sedighi', 'http://dbpedia.org/resource/Amjyot_Singh', 'http://dbpedia.org/resource/Amos_Thomas_(basketball)', 'http://dbpedia.org/resource/Anas_Mahmoud', 'http://dbpedia.org/resource/Anatoli_Polivoda', 'http://dbpedia.org/resource/Anatoly_Myshkin', 'http://dbpedia.org/resource/Anatoly_Zourpenko', 'http://dbpedia.org/resource/Anderson_Varejão', 'http://dbpedia.org/resource/Andrae_Patterson__Andrae_Patterson__1', 'http://dbpedia.org/resource/Andray_Blatche', 'http://dbpedia.org/resource/Andre_Brown_(basketball)', 'http://dbpedia.org/resource/Andre_Drummond', 'http://dbpedia.org/resource/André_Ernesto_Stoffel', 'http://dbpedia.org/resource/Andre_Hutson', 'http://dbpedia.org/resource/Andre_Moore', 'http://dbpedia.org/resource/Andre_Patterson', 'http://dbpedia.org/resource/Andre_Riddick', 'http://dbpedia.org/resource/André_Roberson', 'http://dbpedia.org/resource/Andre_Smith_(basketball,_born_1985)', 'http://dbpedia.org/resource/Andre_Smith_(Nebraska_basketball)', 'http://dbpedia.org/resource/Andrea_Bargnani', 'http://dbpedia.org/resource/Andrea_Conti_(basketball)', 'http://dbpedia.org/resource/Andrea_Crosariol', 'http://dbpedia.org/resource/Andrea_Meneghin', 'http://dbpedia.org/resource/Andreas_Glyniadakis', 'http://dbpedia.org/resource/Andreas_Kanonidis', 'http://dbpedia.org/resource/Andreas_Pelekoudas', 'http://dbpedia.org/resource/Andreas_Schreiber', 'http://dbpedia.org/resource/Andreas_Tsoumanis', 'http://dbpedia.org/resource/Andrei_Fetisov', 'http://dbpedia.org/resource/Andrei_Kirilenko', 'http://dbpedia.org/resource/Andrej_Stojaković', 'http://dbpedia.org/resource/Andrés_Guibert', 'http://dbpedia.org/resource/Andrés_Jiménez_(basketball)', 'http://dbpedia.org/resource/Andrés_Nocioni', 'http://dbpedia.org/resource/Andrew_Betts', 'http://dbpedia.org/resource/Andrew_Bogut', 'http://dbpedia.org/resource/Andrew_Bynum', 'http://dbpedia.org/resource/Andrew_DeClercq', 'http://dbpedia.org/resource/Andrew_Fields', 'http://dbpedia.org/resource/Andrew_Fitzgerald_(basketball)', 'http://dbpedia.org/resource/Andrew_Kennedy_(basketball)', 'http://dbpedia.org/resource/Andrew_Lang_(basketball)', 'http://dbpedia.org/resource/Andrew_Nicholson_(basketball)', 'http://dbpedia.org/resource/Andrew_Smith_(basketball,_born_1990)', 'http://dbpedia.org/resource/Andrew_Sullivan_(basketball)', 'http://dbpedia.org/resource/Andrew_Vlahov', 'http://dbpedia.org/resource/Andrew_White_(basketball)', 'http://dbpedia.org/resource/Andrew_Wiggins', 'http://dbpedia.org/resource/Andrey_Desyatnikov', 'http://dbpedia.org/resource/Andrey_Lopatov', 'http://dbpedia.org/resource/Andrianos_Perdikaris', 'http://dbpedia.org/resource/Andris_Biedriņš', 'http://dbpedia.org/resource/Andrius_Jurkūnas', 'http://dbpedia.org/resource/Andrius_Šležas', 'http://dbpedia.org/resource/Andriy_Malysh', 'http://dbpedia.org/resource/Andro_Knego', 'http://dbpedia.org/resource/Andronikos_Gizogiannis', 'http://dbpedia.org/resource/Andy_Ogide', 'http://dbpedia.org/resource/Andy_Panko', 'http://dbpedia.org/resource/Andy_Seigle', 'http://dbpedia.org/resource/Andy_Van_Vliet', 'http://dbpedia.org/resource/Ange_Kouame', 'http://dbpedia.org/resource/Ángel_Delgado', 'http://dbpedia.org/resource/Ángel_García_(basketball,_born_1988)__Ángel_García__1', 'http://dbpedia.org/resource/Angelo_Caloiaro', 'http://dbpedia.org/resource/Angelo_Chol', 'http://dbpedia.org/resource/Angelo_Gigli', 'http://dbpedia.org/resource/Angelo_Reyes_(basketball)', 'http://dbpedia.org/resource/Angelos_Siamandouras', 'http://dbpedia.org/resource/Anna_Prins', 'http://dbpedia.org/resource/Anne_Donovan', 'http://dbpedia.org/resource/Ansley_Truitt', 'http://dbpedia.org/resource/Ansu_Sesay', 'http://dbpedia.org/resource/Antanas_Kavaliauskas', 'http://dbpedia.org/resource/Antawn_Jamison', 'http://dbpedia.org/resource/Ante_Đugum', 'http://dbpedia.org/resource/Ante_Grgurević', 'http://dbpedia.org/resource/Ante_Krapić', 'http://dbpedia.org/resource/Ante_Mašić', 'http://dbpedia.org/resource/Ante_Žižić', 'http://dbpedia.org/resource/Anthony_Avent', 'http://dbpedia.org/resource/Anthony_Bennett_(basketball)', 'http://dbpedia.org/resource/Anthony_Bonner__Anthony_Bonner__1', 'http://dbpedia.org/resource/Anthony_Brown_(basketball)', 'http://dbpedia.org/resource/Anthony_Cook_(basketball)', 'http://dbpedia.org/resource/Anthony_Davis', 'http://dbpedia.org/resource/Anthony_Duruji', 'http://dbpedia.org/resource/Anthony_Elechi', 'http://dbpedia.org/resource/Anthony_Fernandez', 'http://dbpedia.org/resource/Anthony_Frederick', 'http://dbpedia.org/resource/Anthony_Gill_(basketball)', 'http://dbpedia.org/resource/Anthony_Jones_(basketball,_born_1967)', 'http://dbpedia.org/resource/Anthony_King_(basketball)', 'http://dbpedia.org/resource/Anthony_Lawrence_(basketball)', 'http://dbpedia.org/resource/Anthony_Mason_(basketball)', 'http://dbpedia.org/resource/Anthony_McHenry', 'http://dbpedia.org/resource/Anthony_Miller_(basketball)', 'http://dbpedia.org/resource/Anthony_Myles_(basketball,_born_1982)', 'http://dbpedia.org/resource/Anthony_Pelle', 'http://dbpedia.org/resource/Anthony_Pérez_(basketball)', 'http://dbpedia.org/resource/Anthony_Pullard', 'http://dbpedia.org/resource/Anthony_Randolph', 'http://dbpedia.org/resource/Anthony_Richardson_(basketball)', 'http://dbpedia.org/resource/Anthony_Smith_(basketball)', 'http://dbpedia.org/resource/Anthony_Stover', 'http://dbpedia.org/resource/Anthony_Teachey', 'http://dbpedia.org/resource/Anthony_Tolliver', 'http://dbpedia.org/resource/Anthony_Tucker_(basketball)', 'http://dbpedia.org/resource/Antoine_Carr', 'http://dbpedia.org/resource/Antoine_Joseph', 'http://dbpedia.org/resource/Antoine_Rigaudeau', 'http://dbpedia.org/resource/Antoine_Walker', 'http://dbpedia.org/resource/Antoine_Wright_(basketball)', 'http://dbpedia.org/resource/Anton_Odabasi', 'http://dbpedia.org/resource/Anton_Pushkov', 'http://dbpedia.org/resource/Anton_Shoutvin', 'http://dbpedia.org/resource/Anton_Watson', 'http://dbpedia.org/resource/Antone_Warren', 'http://dbpedia.org/resource/Antonio_Campbell', 'http://dbpedia.org/resource/Antonio_Davis__Antonio_Davis__1', 'http://dbpedia.org/resource/Antonio_Granger', 'http://dbpedia.org/resource/Antonio_Harvey', 'http://dbpedia.org/resource/Antonio_Lang', 'http://dbpedia.org/resource/Antonio_Martín_Espina', 'http://dbpedia.org/resource/Antonio_McDyess', 'http://dbpedia.org/resource/Antonio_Meeking', 'http://dbpedia.org/resource/Antonio_Reynolds-Dean', 'http://dbpedia.org/resource/Antonios_Asimakopoulos', 'http://dbpedia.org/resource/Antonis_Fotsis', 'http://dbpedia.org/resource/Antonis_Michaloglou', 'http://dbpedia.org/resource/Antti_Nikkilä', 'http://dbpedia.org/resource/Antwain_Smith', 'http://dbpedia.org/resource/Antwaine_Wiggins', 'http://dbpedia.org/resource/Antwan_January', 'http://dbpedia.org/resource/Antywane_Robinson', 'http://dbpedia.org/resource/Anwar_Ferguson', 'http://dbpedia.org/resource/Anžejs_Pasečņiks', 'http://dbpedia.org/resource/Aramis_Naglić', 'http://dbpedia.org/resource/Archie_Dees', 'http://dbpedia.org/resource/Archie_Marshall_(basketball)', 'http://dbpedia.org/resource/Argiris_Kambouris', 'http://dbpedia.org/resource/Argiris_Papapetrou', 'http://dbpedia.org/resource/Aric_Holman', 'http://dbpedia.org/resource/Arijan_Komazec', 'http://dbpedia.org/resource/Arinze_Onuaku', 'http://dbpedia.org/resource/Aristides_Josuel_dos_Santos', 'http://dbpedia.org/resource/Arman_Zangeneh', 'http://dbpedia.org/resource/Armando_Bacot', 'http://dbpedia.org/resource/Armen_Gilliam', 'http://dbpedia.org/resource/Arnaud_Cotture', 'http://dbpedia.org/resource/Arnett_Moultrie', 'http://dbpedia.org/resource/Arnette_Hallman', 'http://dbpedia.org/resource/Arnie_Risen', 'http://dbpedia.org/resource/Arnis_Vecvagars', 'http://dbpedia.org/resource/Arnold_Van_Opstal', 'http://dbpedia.org/resource/Aron_Baynes', 'http://dbpedia.org/resource/Arsalan_Kazemi', 'http://dbpedia.org/resource/Art_Becker', 'http://dbpedia.org/resource/Art_Hillhouse', 'http://dbpedia.org/resource/Art_Long', 'http://dbpedia.org/resource/Art_Spoelstra', 'http://dbpedia.org/resource/Artem_Zabelin', 'http://dbpedia.org/resource/Arthur_Johnson_(basketball)', 'http://dbpedia.org/resource/Arthur_Kaluma', 'http://dbpedia.org/resource/Arthur_Kenney_(basketball)', 'http://dbpedia.org/resource/Artis_Gilmore', 'http://dbpedia.org/resource/Artsiom_Parakhouski', 'http://dbpedia.org/resource/Artūras_Javtokas', 'http://dbpedia.org/resource/Artūras_Jomantas', 'http://dbpedia.org/resource/Artūras_Masiulis', 'http://dbpedia.org/resource/Arvid_Kramer', 'http://dbpedia.org/resource/Arvydas_Sabonis', 'http://dbpedia.org/resource/Asbjørn_Midtgaard', 'http://dbpedia.org/resource/Asghar_Kardoust', 'http://dbpedia.org/resource/Ashante_Johnson', 'http://dbpedia.org/resource/Ashley_Hamilton_(basketball)', 'http://dbpedia.org/resource/Ashraf_Amaya', 'http://dbpedia.org/resource/Ashton_Pankey', 'http://dbpedia.org/resource/Asi_Taulava', 'http://dbpedia.org/resource/Asım_Pars', 'http://dbpedia.org/resource/Asko_Paade', 'http://dbpedia.org/resource/Assem_Marei', 'http://dbpedia.org/resource/Astan_Dabo', 'http://dbpedia.org/resource/Atanas_Golomeev', 'http://dbpedia.org/resource/Ater_Majok', 'http://dbpedia.org/resource/Atsuya_Ota', 'http://dbpedia.org/resource/Attarius_Norwood', 'http://dbpedia.org/resource/Audie_Norris', 'http://dbpedia.org/resource/Augustine_Rubit', 'http://dbpedia.org/resource/Augusto_Binelli', 'http://dbpedia.org/resource/Augusto_Lima', 'http://dbpedia.org/resource/Augustus_Gilchrist', 'http://dbpedia.org/resource/Aulcie_Perry', 'http://dbpedia.org/resource/Aurimas_Kieža', 'http://dbpedia.org/resource/Aurimas_Majauskas', 'http://dbpedia.org/resource/Ausar_Thompson', 'http://dbpedia.org/resource/Austin_Croshere', 'http://dbpedia.org/resource/Austin_Dufault', 'http://dbpedia.org/resource/Austin_Nichols_(basketball)', 'http://dbpedia.org/resource/Austin_Steed', 'http://dbpedia.org/resource/Austin_Wiley', 'http://dbpedia.org/resource/Axel_Bouteille', 'http://dbpedia.org/resource/Axel_Hervelle', 'http://dbpedia.org/resource/Axel_Toupane', 'http://dbpedia.org/resource/Ayberk_Olmaz', 'http://dbpedia.org/resource/Ayman_Adais', 'http://dbpedia.org/resource/B._B._Davis', 'http://dbpedia.org/resource/B._H._Born', 'http://dbpedia.org/resource/B._J._Johnson_(basketball)', 'http://dbpedia.org/resource/Babacar_Camara', 'http://dbpedia.org/resource/Babacar_Sané', 'http://dbpedia.org/resource/Babacar_Touré', 'http://dbpedia.org/resource/Bailey_Howell', 'http://dbpedia.org/resource/Bakari_Hendrix', 'http://dbpedia.org/resource/Balša_Koprivica', 'http://dbpedia.org/resource/Balša_Radunović', 'http://dbpedia.org/resource/Bam_Adebayo', 'http://dbpedia.org/resource/Bamba_Fall', 'http://dbpedia.org/resource/Bambale_Osby', 'http://dbpedia.org/resource/Bara_Diop', 'http://dbpedia.org/resource/Bariša_Krasić', 'http://dbpedia.org/resource/Barış_Hersek', 'http://dbpedia.org/resource/Barney_Cable', 'http://dbpedia.org/resource/Barry_Mungar', 'http://dbpedia.org/resource/Barry_Nelson_(basketball)', 'http://dbpedia.org/resource/Barry_Sumpter', 'http://dbpedia.org/resource/Barry_Yates', 'http://dbpedia.org/resource/Bas_Veenstra', 'http://dbpedia.org/resource/Bassel_Bawji', 'http://dbpedia.org/resource/Bayard_Forrest', 'http://dbpedia.org/resource/Baye_Fall_(basketball)', 'http://dbpedia.org/resource/Beau_Beech', 'http://dbpedia.org/resource/Bechir_Hadidane', 'http://dbpedia.org/resource/BeeJay_Anya', 'http://dbpedia.org/resource/Beka_Burjanadze', 'http://dbpedia.org/resource/Bekir_Yarangüme', 'http://dbpedia.org/resource/Ben_Altit', 'http://dbpedia.org/resource/Ben_Carter_(basketball)', 'http://dbpedia.org/resource/Ben_Clyde', 'http://dbpedia.org/resource/Ben_Coleman_(basketball)', 'http://dbpedia.org/resource/Ben_Davis_(basketball)', 'http://dbpedia.org/resource/Ben_Eisenhardt', 'http://dbpedia.org/resource/Ben_Gillery', 'http://dbpedia.org/resource/Ben_Handlogten', 'http://dbpedia.org/resource/Ben_Lammers', 'http://dbpedia.org/resource/Ben_Lawson_(basketball)', 'http://dbpedia.org/resource/Ben_McCauley', 'http://dbpedia.org/resource/Ben_McDonald_(basketball)', 'http://dbpedia.org/resource/Ben_Moore_(basketball)', 'http://dbpedia.org/resource/Ben_Poquette', 'http://dbpedia.org/resource/Ben_Simmons', 'http://dbpedia.org/resource/Ben_Strong_(basketball)', 'http://dbpedia.org/resource/Ben_Sullivan_(basketball)', 'http://dbpedia.org/resource/Ben_Vander_Plas', 'http://dbpedia.org/resource/Ben_Wallace_(basketball)', 'http://dbpedia.org/resource/Ben_Wilson_(basketball)', 'http://dbpedia.org/resource/Benjamin_Eze', 'http://dbpedia.org/resource/Benjamin_Ortner', 'http://dbpedia.org/resource/Bennett_Davison', 'http://dbpedia.org/resource/Bennett_Koch', 'http://dbpedia.org/resource/Bennie_Boatwright', 'http://dbpedia.org/resource/Bennie_Swain', 'http://dbpedia.org/resource/Benny_Williams_(basketball)', 'http://dbpedia.org/resource/Benoit_Benjamin', 'http://dbpedia.org/resource/Berend_Weijs', 'http://dbpedia.org/resource/Berk_Demir', 'http://dbpedia.org/resource/Berkan_Durmaz', 'http://dbpedia.org/resource/Berkay_Candan', 'http://dbpedia.org/resource/Bernadett_Határ', 'http://dbpedia.org/resource/Bernard_James', 'http://dbpedia.org/resource/Bernard_King', 'http://dbpedia.org/resource/Bernard_Toone', 'http://dbpedia.org/resource/Berni_Tamames', 'http://dbpedia.org/resource/Bernie_Harris_(basketball)', 'http://dbpedia.org/resource/Betinho_(basketball)', 'http://dbpedia.org/resource/Bevo_Francis', 'http://dbpedia.org/resource/Bevo_Nordmann', 'http://dbpedia.org/resource/Big_Moose_Meyer', 'http://dbpedia.org/resource/Bill_Allen_(basketball)', 'http://dbpedia.org/resource/Bill_Amis', 'http://dbpedia.org/resource/Bill_Buntin', 'http://dbpedia.org/resource/Bill_Bunting', 'http://dbpedia.org/resource/Bill_Campion', 'http://dbpedia.org/resource/Bill_Cartwright', 'http://dbpedia.org/resource/Bill_Chmielewski', 'http://dbpedia.org/resource/Bill_Coven', 'http://dbpedia.org/resource/Bill_Curley', 'http://dbpedia.org/resource/Bill_Dinwiddie', 'http://dbpedia.org/resource/Bill_Garner_(basketball)', 'http://dbpedia.org/resource/Bill_Garnett', 'http://dbpedia.org/resource/Bill_Gossett', 'http://dbpedia.org/resource/Bill_Hanzlik', 'http://dbpedia.org/resource/Bill_Henry_(basketball)', 'http://dbpedia.org/resource/Bill_Hewitt_(basketball)', 'http://dbpedia.org/resource/Bill_Hosket_Jr.', 'http://dbpedia.org/resource/Bill_Jones_(basketball,_born_1966)', 'http://dbpedia.org/resource/Bill_Laimbeer', 'http://dbpedia.org/resource/Bill_Logan_(basketball)', 'http://dbpedia.org/resource/Bill_Martin_(basketball)', 'http://dbpedia.org/resource/Bill_Mayfield', 'http://dbpedia.org/resource/Bill_McGill', 'http://dbpedia.org/resource/Bill_Melis', 'http://dbpedia.org/resource/Bill_Newton_(basketball)', 'http://dbpedia.org/resource/Bill_Roberts_(basketball)', 'http://dbpedia.org/resource/Bill_Robinzine', 'http://dbpedia.org/resource/Bill_Russell', 'http://dbpedia.org/resource/Bill_Sattler', 'http://dbpedia.org/resource/Bill_Schrader', 'http://dbpedia.org/resource/Bill_Spivey', 'http://dbpedia.org/resource/Bill_Stricker', 'http://dbpedia.org/resource/Bill_Thieben', 'http://dbpedia.org/resource/Bill_Turner_(basketball)', 'http://dbpedia.org/resource/Bill_Uhl', 'http://dbpedia.org/resource/Bill_Varner', 'http://dbpedia.org/resource/Bill_Walton', 'http://dbpedia.org/resource/Bill_Wennington', 'http://dbpedia.org/resource/Bill_Willoughby', 'http://dbpedia.org/resource/Billy_McShepard', 'http://dbpedia.org/resource/Billy_Owens', 'http://dbpedia.org/resource/Billy_Paultz', 'http://dbpedia.org/resource/Billy_Preston_(basketball)', 'http://dbpedia.org/resource/Billy_Singleton', 'http://dbpedia.org/resource/Billy_Thompson_(basketball)', 'http://dbpedia.org/resource/Billy_White_(basketball)', 'http://dbpedia.org/resource/Bismack_Biyombo', 'http://dbpedia.org/resource/Bison_Dele', 'http://dbpedia.org/resource/Blagota_Sekulić', 'http://dbpedia.org/resource/Blair_Rasmussen', 'http://dbpedia.org/resource/Blake_Aoki_Borysewicz', 'http://dbpedia.org/resource/Blake_Griffin', 'http://dbpedia.org/resource/Blerim_Mazreku', 'http://dbpedia.org/resource/Bo_Ellis__Bo_Ellis__1', 'http://dbpedia.org/resource/Bo_Outlaw', 'http://dbpedia.org/resource/Bob_Allen_(basketball)', 'http://dbpedia.org/resource/Bob_Armstrong_(basketball,_born_1933)', 'http://dbpedia.org/resource/Bob_Bedell', 'http://dbpedia.org/resource/Bob_Bigelow', 'http://dbpedia.org/resource/Bob_Boozer', 'http://dbpedia.org/resource/Bob_Brown_(basketball,_born_1921)', 'http://dbpedia.org/resource/Bob_Burrow', 'http://dbpedia.org/resource/Bob_Christian_(basketball)', 'http://dbpedia.org/resource/Bob_Cluggish', 'http://dbpedia.org/resource/Bob_Davis_(basketball_player)__Bob_Davis__1', 'http://dbpedia.org/resource/Bob_Dykstra', 'http://dbpedia.org/resource/Bob_Elliott_(basketball)', 'http://dbpedia.org/resource/Bob_Ferry', 'http://dbpedia.org/resource/Bob_Ford_(basketball)', 'http://dbpedia.org/resource/Bob_Greacen', 'http://dbpedia.org/resource/Bob_Hahn', 'http://dbpedia.org/resource/Bob_Harris_(basketball)', 'http://dbpedia.org/resource/Bob_Hogsett', 'http://dbpedia.org/resource/Bob_Hopkins__Bob_Hopkins__1', 'http://dbpedia.org/resource/Bob_Houbregs', 'http://dbpedia.org/resource/Bob_Kauffman', 'http://dbpedia.org/resource/Bob_Kurland', 'http://dbpedia.org/resource/Bob_Lanier', 'http://dbpedia.org/resource/Bob_Lavoy', 'http://dbpedia.org/resource/Bob_Lienhard', 'http://dbpedia.org/resource/Bob_Love', 'http://dbpedia.org/resource/Bob_Martin_(basketball)', 'http://dbpedia.org/resource/Bob_Mattick', 'http://dbpedia.org/resource/Bob_McAdoo', 'http://dbpedia.org/resource/Bob_McCurdy', 'http://dbpedia.org/resource/Bob_McKeen', 'http://dbpedia.org/resource/Bob_Miller_(basketball)', 'http://dbpedia.org/resource/Bob_Morse', 'http://dbpedia.org/resource/Bob_Myers', 'http://dbpedia.org/resource/Bob_Nash_(basketball)', 'http://dbpedia.org/resource/Bob_Netolicky', 'http://dbpedia.org/resource/Bob_Pelkington', 'http://dbpedia.org/resource/Bob_Pettit', 'http://dbpedia.org/resource/Bob_Riley_(basketball)', 'http://dbpedia.org/resource/Bob_Rule', 'http://dbpedia.org/resource/Bob_Spessard', 'http://dbpedia.org/resource/Bob_Thornton', 'http://dbpedia.org/resource/Bob_Woollard', 'http://dbpedia.org/resource/Boban_Janković', 'http://dbpedia.org/resource/Boban_Marjanović', 'http://dbpedia.org/resource/Bobby_Cattage', 'http://dbpedia.org/resource/Bobby_Croft', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1951)', 'http://dbpedia.org/resource/Bobby_Jones_(basketball,_born_1984)', 'http://dbpedia.org/resource/Bobby_Lee_Hurt', 'http://dbpedia.org/resource/Bobby_Portis', 'http://dbpedia.org/resource/Bobby_Simmons', 'http://dbpedia.org/resource/Bobby_Speight', 'http://dbpedia.org/resource/Bobby_Watson_(basketball_coach)', 'http://dbpedia.org/resource/Bobby_Wilson_(basketball,_born_1944)', 'http://dbpedia.org/resource/Bojan_Subotić', 'http://dbpedia.org/resource/Bol_Bol', 'http://dbpedia.org/resource/Bonel_Balingit', "http://dbpedia.org/resource/Boniface_N'Dong", 'http://dbpedia.org/resource/Boo_Jackson__Boo_Jackson__1', 'http://dbpedia.org/resource/Bora_Paçun', 'http://dbpedia.org/resource/Boris_Diaw', 'http://dbpedia.org/resource/Boštjan_Nachbar', 'http://dbpedia.org/resource/Boubacar_Aw', 'http://dbpedia.org/resource/Boubacar_Coly', 'http://dbpedia.org/resource/Boubacar_Toure', 'http://dbpedia.org/resource/Brad_Branson', 'http://dbpedia.org/resource/Brad_Daugherty_(basketball)', 'http://dbpedia.org/resource/Brad_Lohaus', 'http://dbpedia.org/resource/Brad_Miley', 'http://dbpedia.org/resource/Brad_Miller_(basketball)', 'http://dbpedia.org/resource/Brad_Robinson_(basketball)', 'http://dbpedia.org/resource/Brad_Waldow', 'http://dbpedia.org/resource/Brad_Wright_(basketball)', 'http://dbpedia.org/resource/Bradley_Buckman', 'http://dbpedia.org/resource/Brady_Manek', 'http://dbpedia.org/resource/Brandan_Wright', 'http://dbpedia.org/resource/Brandon_Bass', 'http://dbpedia.org/resource/Brandon_Bowman', 'http://dbpedia.org/resource/Brandon_Clarke', 'http://dbpedia.org/resource/Brandon_Cole', 'http://dbpedia.org/resource/Brandon_Costner', 'http://dbpedia.org/resource/Brandon_Davies', 'http://dbpedia.org/resource/Brandon_Gilbeck', 'http://dbpedia.org/resource/Brandon_Hunter', 'http://dbpedia.org/resource/Brandon_Huntley-Hatfield', 'http://dbpedia.org/resource/Brandon_Ingram', 'http://dbpedia.org/resource/Brandon_McCoy', 'http://dbpedia.org/resource/Brandon_Miller_(basketball,_born_2002)', 'http://dbpedia.org/resource/Brandon_Penn', 'http://dbpedia.org/resource/Brandon_Sebirumbi', 'http://dbpedia.org/resource/Brandon_Slater', 'http://dbpedia.org/resource/Brandon_Ubel', 'http://dbpedia.org/resource/Brandon_Wallace', 'http://dbpedia.org/resource/Brant_Weidner', 'http://dbpedia.org/resource/Braxton_Key', 'http://dbpedia.org/resource/Brayon_Blake', 'http://dbpedia.org/resource/Brekkott_Chapman', 'http://dbpedia.org/resource/Brendan_Haywood', 'http://dbpedia.org/resource/Brendan_Lane_(basketball)', 'http://dbpedia.org/resource/Brennan_McElroy', 'http://dbpedia.org/resource/Brent_Barry', 'http://dbpedia.org/resource/Brent_Petway', 'http://dbpedia.org/resource/Brent_Scott_(basketball)', 'http://dbpedia.org/resource/Brent_Wright', 'http://dbpedia.org/resource/Bret_Brielmaier', 'http://dbpedia.org/resource/Brett_Roberts', 'http://dbpedia.org/resource/Brett_Szabo', 'http://dbpedia.org/resource/Brett_Vroman', 'http://dbpedia.org/resource/Brian_Beshara', 'http://dbpedia.org/resource/Brian_Butch', 'http://dbpedia.org/resource/Brian_Cardinal', 'http://dbpedia.org/resource/Brian_Cook_(basketball)', 'http://dbpedia.org/resource/Brian_Cusworth', 'http://dbpedia.org/resource/Brian_Davis_(basketball)', 'http://dbpedia.org/resource/Brian_Evans_(basketball)', 'http://dbpedia.org/resource/Brian_Fitzpatrick_(basketball)', 'http://dbpedia.org/resource/Brian_Grant', 'http://dbpedia.org/resource/Brian_Jackson_(basketball)', 'http://dbpedia.org/resource/Brian_Kerle', 'http://dbpedia.org/resource/Brian_Martin_(basketball)', 'http://dbpedia.org/resource/Brian_Oliver_(basketball,_born_1990)', 'http://dbpedia.org/resource/Brian_Quinnett', 'http://dbpedia.org/resource/Brian_Qvale', 'http://dbpedia.org/resource/Brian_Randle__Brian_Randle__1', 'http://dbpedia.org/resource/Brian_Rowsom', 'http://dbpedia.org/resource/Brian_Scalabrine', 'http://dbpedia.org/resource/Brian_Skinner', 'http://dbpedia.org/resource/Brian_Zoubek', 'http://dbpedia.org/resource/Brice_Assie__Brice_Assie__1', 'http://dbpedia.org/resource/Brice_Johnson', 'http://dbpedia.org/resource/Brice_Vounang', 'http://dbpedia.org/resource/Bright_Akhuetie', 'http://dbpedia.org/resource/Britton_Johnsen', 'http://dbpedia.org/resource/Brock_Motum', 'http://dbpedia.org/resource/Brook_Lopez', 'http://dbpedia.org/resource/Bruce_Bolden', 'http://dbpedia.org/resource/Bruce_Bowen', 'http://dbpedia.org/resource/Bruce_Flowers', 'http://dbpedia.org/resource/Bruce_Kuczenski', 'http://dbpedia.org/resource/Bruce_Seals', 'http://dbpedia.org/resource/Bruno_Boin', 'http://dbpedia.org/resource/Bruno_Caboclo', 'http://dbpedia.org/resource/Bruno_Coqueran', 'http://dbpedia.org/resource/Bruno_Fernando', 'http://dbpedia.org/resource/Bruno_Šundov', 'http://dbpedia.org/resource/Bruno-Nazaire_Kongaouin', 'http://dbpedia.org/resource/Bryan_Bracey', 'http://dbpedia.org/resource/Bryan_Davis_(basketball)', 'http://dbpedia.org/resource/Bryant_Dunston', 'http://dbpedia.org/resource/Bryant_Reeves', 'http://dbpedia.org/resource/Bryant_Smith', 'http://dbpedia.org/resource/Bryce_Douvier', 'http://dbpedia.org/resource/Bryce_Washington_(basketball)', 'http://dbpedia.org/resource/Bryon_Russell', 'http://dbpedia.org/resource/Bryson_Williams', '</t>
   </si>
   <si>
     <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
@@ -1287,79 +1980,74 @@
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 155,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain ?elevation WHERE { ?mountain dbo:Mountains . ?mountain dbo:locatedInArea dbr:Italy . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 155,\n        "stopIndex": 155\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain ?elevation WHERE { ?mountain dbo:Mountains . ?mountain dbo:locatedInArea dbr:Italy . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 155,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain ?elevation WHERE { ?mountain dbo:Mountains . ?mountain dbo:locatedInArea dbr:Italy . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 446,\n        "stopIndex": 446\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?mountain ?elevation WHERE { ?mountain dbo:Mountains . ?mountain dbo:locatedInArea dbr:Italy . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 48,\n        "query": "SELECT ?mountain ?elevation WHERE { ?mountain a dbo:Mountain . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1",\n        "startIndex": 48,\n        "stopIndex": 59\n    },\n    "query": "SELECT ?mountain ?elevation WHERE { ?mountain a dbo:Mountain . ?mountain dbo:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 125,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }",\n        "startIndex": 416,\n        "stopIndex": 416\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbp was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 71,\n        "query": "SELECT ?birthPlace WHERE { &lt;http://dbpedia.org/resource/Frank_Sinatra&gt; dbp:birthPlace ?birthPlace }",\n        "startIndex": 71,\n        "stopIndex": 84\n    },\n    "query": "SELECT ?birthPlace WHERE { &lt;http://dbpedia.org/resource/Frank_Sinatra&gt; dbp:birthPlace ?birthPlace }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia-owl was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 37,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?actor ?name WHERE { ?actor a dbpedia-owl:Actor. ?actor dbpedia-owl:birthPlace ?birthPlace. ?birthPlace a dbpedia-owl:Country. ?birthPlace rdfs:label \\"Germany\\"@en. OPTIONAL { ?actor foaf:name ?name. FILTER(langMatches(lang(?name), \'en\')) } }",\n        "startIndex": 414,\n        "stopIndex": 430\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nSELECT ?actor ?name WHERE { ?actor a dbpedia-owl:Actor. ?actor dbpedia-owl:birthPlace ?birthPlace. ?birthPlace a dbpedia-owl:Country. ?birthPlace rdfs:label \\"Germany\\"@en. OPTIONAL { ?actor foaf:name ?name. FILTER(langMatches(lang(?name), \'en\')) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, VAR1, VAR2, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 125,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }",\n        "startIndex": 125,\n        "stopIndex": 125\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?netIncome WHERE { dbr:Apple_Inc. dbo:netIncome ?netIncome . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 155,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:director dbpedia:Francis_Ford_Coppola . ?film rdf:type dbpedia-owl:Film . }",\n        "startIndex": 532,\n        "stopIndex": 559\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:director dbpedia:Francis_Ford_Coppola . ?film rdf:type dbpedia-owl:Film . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia-owl was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 37,\n        "query": "SELECT ?actor ?name WHERE { ?actor a dbpedia-owl:Actor. ?actor dbpedia-owl:birthPlace ?birthPlace. ?birthPlace a dbpedia-owl:Country. ?birthPlace rdfs:label \\"Germany\\"@en. OPTIONAL { ?actor foaf:name ?name. FILTER(langMatches(lang(?name), \'en\')) } }",\n        "startIndex": 37,\n        "stopIndex": 53\n    },\n    "query": "SELECT ?actor ?name WHERE { ?actor a dbpedia-owl:Actor. ?actor dbpedia-owl:birthPlace ?birthPlace. ?birthPlace a dbpedia-owl:Country. ?birthPlace rdfs:label \\"Germany\\"@en. OPTIONAL { ?actor foaf:name ?name. FILTER(langMatches(lang(?name), \'en\')) } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"(\\": mismatched input \'(\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 174,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri ?date WHERE { ?uri a dbo:Album . ?uri dbo:artist dbpedia:Queen_(band) . ?uri dbo:releaseDate ?date . } ORDER BY ?date LIMIT 1",\n        "startIndex": 508,\n        "stopIndex": 508\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri ?date WHERE { ?uri a dbo:Album . ?uri dbo:artist dbpedia:Queen_(band) . ?uri dbo:releaseDate ?date . } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 155,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:director dbpedia:Francis_Ford_Coppola . ?film rdf:type dbpedia-owl:Film . }",\n        "startIndex": 155,\n        "stopIndex": 182\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpprop: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?film WHERE { ?film dbpedia-owl:director dbpedia:Francis_Ford_Coppola . ?film rdf:type dbpedia-owl:Film . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dwarf_planet\\": mismatched input \'dwarf_planet\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 176,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?discoverer WHERE { dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }",\n        "startIndex": 467,\n        "stopIndex": 478\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?discoverer WHERE { dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"(\\": mismatched input \'(\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 174,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri ?date WHERE { ?uri a dbo:Album . ?uri dbo:artist dbpedia:Queen_(band) . ?uri dbo:releaseDate ?date . } ORDER BY ?date LIMIT 1",\n        "startIndex": 174,\n        "stopIndex": 174\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbpedia: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri ?date WHERE { ?uri a dbo:Album . ?uri dbo:artist dbpedia:Queen_(band) . ?uri dbo:releaseDate ?date . } ORDER BY ?date LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia:Bandleader\\": mismatched input \'dbpedia:Bandleader\' expecting \'}\'",\n    "metadata": {\n        "line": 9,\n        "positionInLine": 146,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:?res dbpedia-owl:occupation dbpedia:Bandleader . res:?res dbpedia-owl:instrument dbpedia:Trumpet . }",\n        "startIndex": 523,\n        "stopIndex": 540\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:?res dbpedia-owl:occupation dbpedia:Bandleader . res:?res dbpedia-owl:instrument dbpedia:Trumpet . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dwarf_planet\\": mismatched input \'dwarf_planet\' expecting {\'(\', \'a\', \'^\', \'!\', IRI_REF, PNAME_NS, PNAME_LN, PREFIX_LANGTAG}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 176,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?discoverer WHERE { dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }",\n        "startIndex": 176,\n        "stopIndex": 187\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbr: &lt;http://dbpedia.org/resource/&gt; SELECT ?discoverer WHERE { dbr:Ceres_(dwarf_planet) dbo:discoverer ?discoverer . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 216,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?player WHERE { ?player rdf:type dbpedia-owl:SoccerPlayer . ?player dbpedia-owl:birthPlace dbpedia:Malta . }",\n        "startIndex": 535,\n        "stopIndex": 547\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?player WHERE { ?player rdf:type dbpedia-owl:SoccerPlayer . ?player dbpedia-owl:birthPlace dbpedia:Malta . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbpedia:Bandleader\\": mismatched input \'dbpedia:Bandleader\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 146,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:?res dbpedia-owl:occupation dbpedia:Bandleader . res:?res dbpedia-owl:instrument dbpedia:Trumpet . }",\n        "startIndex": 146,\n        "stopIndex": 163\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?res WHERE { res:?res dbpedia-owl:occupation dbpedia:Bandleader . res:?res dbpedia-owl:instrument dbpedia:Trumpet . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 81,\n        "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbpedia:BasketballPlayer . ?uri dbpedia:height ?height . FILTER (?height &gt; 2) }",\n        "startIndex": 81,\n        "stopIndex": 88\n    },\n    "query": "PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbpedia:BasketballPlayer . ?uri dbpedia:height ?height . FILTER (?height &gt; 2) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbpedia was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 216,\n        "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?player WHERE { ?player rdf:type dbpedia-owl:SoccerPlayer . ?player dbpedia-owl:birthPlace dbpedia:Malta . }",\n        "startIndex": 216,\n        "stopIndex": 228\n    },\n    "query": "PREFIX dbpedia-owl: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?player WHERE { ?player rdf:type dbpedia-owl:SoccerPlayer . ?player dbpedia-owl:birthPlace dbpedia:Malta . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Astronaut . { ?uri dbo:nationality dbr:Russia } UNION { ?uri dbo:nationality dbr:Soviet_Union } }",\n        "startIndex": 34,\n        "stopIndex": 47\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri dbo:occupation dbr:Astronaut . { ?uri dbo:nationality dbr:Russia } UNION { ?uri dbo:nationality dbr:Soviet_Union } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix xsd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 364,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?number ?capitalLabel WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbo:capital ?capital . ?capital dbo:populationTotal ?number . ?capital rdfs:label ?capitalLabel . FILTER(lang(?capitalLabel) = \'en\') FILTER(isLiteral(?number) &amp;&amp; datatype(?number) = xsd:integer) }",\n        "startIndex": 364,\n        "stopIndex": 374\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?number ?capitalLabel WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbo:capital ?capital . ?capital dbo:populationTotal ?number . ?capital rdfs:label ?capitalLabel . FILTER(lang(?capitalLabel) = \'en\') FILTER(isLiteral(?number) &amp;&amp; datatype(?number) = xsd:integer) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix xsd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 364,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?number ?capitalLabel WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbo:capital ?capital . ?capital dbo:populationTotal ?number . ?capital rdfs:label ?capitalLabel . FILTER(lang(?capitalLabel) = \'en\') FILTER(isLiteral(?number) &amp;&amp; datatype(?number) = xsd:integer) }",\n        "startIndex": 698,\n        "stopIndex": 708\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?number ?capitalLabel WHERE { &lt;http://dbpedia.org/resource/Australia&gt; dbo:capital ?capital . ?capital dbo:populationTotal ?number . ?capital rdfs:label ?capitalLabel . FILTER(lang(?capitalLabel) = \'en\') FILTER(isLiteral(?number) &amp;&amp; datatype(?number) = xsd:integer) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
   </si>
   <si>
     <t>Resource treated as Ontology</t>
   </si>
   <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
   </si>
   <si>
     <t>Ontology treated as Resource</t>
@@ -1421,11 +2109,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1730,13 +2419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1761,8 +2450,17 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1773,13 +2471,13 @@
         <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1788,7 +2486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1799,13 +2497,13 @@
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1814,7 +2512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1825,13 +2523,13 @@
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1840,7 +2538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1851,13 +2549,13 @@
         <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1866,7 +2564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1877,22 +2575,22 @@
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1903,22 +2601,22 @@
         <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1929,22 +2627,22 @@
         <v>214</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1955,22 +2653,22 @@
         <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1978,16 +2676,16 @@
         <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -1996,7 +2694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2004,25 +2702,25 @@
         <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2030,16 +2728,16 @@
         <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2048,7 +2746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2056,16 +2754,16 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2074,7 +2772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2082,25 +2780,31 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E14" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I14" t="s">
+        <v>438</v>
+      </c>
+      <c r="J14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2108,16 +2812,16 @@
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2126,7 +2830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2134,16 +2838,16 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2152,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2160,25 +2864,25 @@
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E17" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -2186,16 +2890,16 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2204,7 +2908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -2212,25 +2916,25 @@
         <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E19" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2238,16 +2942,16 @@
         <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2256,7 +2960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2264,25 +2968,28 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I21" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -2290,16 +2997,16 @@
         <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F22" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2308,7 +3015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2316,25 +3023,28 @@
         <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I23" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2342,25 +3052,25 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F24" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2368,16 +3078,16 @@
         <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2386,7 +3096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2394,16 +3104,16 @@
         <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2412,7 +3122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2420,16 +3130,16 @@
         <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2438,7 +3148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2446,25 +3156,25 @@
         <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2472,16 +3182,16 @@
         <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F29" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2490,7 +3200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2498,16 +3208,16 @@
         <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2516,7 +3226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2524,16 +3234,16 @@
         <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -2542,7 +3252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2550,16 +3260,16 @@
         <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F32" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
@@ -2568,7 +3278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2576,16 +3286,16 @@
         <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F33" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2594,7 +3304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2602,25 +3312,28 @@
         <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E34" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="I34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2628,25 +3341,25 @@
         <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E35" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F35" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2654,16 +3367,16 @@
         <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F36" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -2672,7 +3385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2680,16 +3393,16 @@
         <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F37" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -2698,7 +3411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2706,25 +3419,28 @@
         <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E38" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F38" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2732,16 +3448,16 @@
         <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F39" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2750,7 +3466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -2758,16 +3474,16 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F40" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -2776,7 +3492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -2784,16 +3500,16 @@
         <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F41" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -2802,7 +3518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -2810,25 +3526,25 @@
         <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E42" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F42" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2836,13 +3552,13 @@
         <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E43" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F43" t="s">
         <v>421</v>
@@ -2851,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -2862,16 +3578,16 @@
         <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F44" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -2880,7 +3596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -2888,16 +3604,16 @@
         <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F45" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2906,7 +3622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2914,16 +3630,16 @@
         <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2932,7 +3648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2940,25 +3656,25 @@
         <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E47" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2966,16 +3682,16 @@
         <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -2984,7 +3700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -2992,16 +3708,16 @@
         <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F49" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3010,7 +3726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -3018,16 +3734,16 @@
         <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3036,7 +3752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -3044,16 +3760,16 @@
         <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -3062,7 +3778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -3070,25 +3786,25 @@
         <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="E52" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F52" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -3096,25 +3812,25 @@
         <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E53" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -3122,16 +3838,16 @@
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E54" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3140,7 +3856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -3148,16 +3864,16 @@
         <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E55" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -3166,7 +3882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -3174,13 +3890,13 @@
         <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E56" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F56" t="s">
         <v>423</v>
@@ -3189,10 +3905,13 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3200,16 +3919,16 @@
         <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E57" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3218,7 +3937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -3226,25 +3945,28 @@
         <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E58" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -3252,16 +3974,16 @@
         <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D59" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E59" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F59" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
@@ -3270,7 +3992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3278,16 +4000,16 @@
         <v>166</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E60" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3296,7 +4018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -3304,25 +4026,25 @@
         <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E61" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -3330,25 +4052,28 @@
         <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E62" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3356,16 +4081,16 @@
         <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E63" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3374,7 +4099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -3382,16 +4107,16 @@
         <v>170</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E64" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
@@ -3400,7 +4125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3408,16 +4133,16 @@
         <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E65" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F65" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3426,7 +4151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -3434,25 +4159,25 @@
         <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E66" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -3460,16 +4185,16 @@
         <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E67" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -3478,7 +4203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -3486,13 +4211,13 @@
         <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E68" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F68" t="s">
         <v>424</v>
@@ -3501,10 +4226,16 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I68" t="s">
+        <v>439</v>
+      </c>
+      <c r="J68" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -3512,16 +4243,16 @@
         <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E69" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F69" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
@@ -3530,7 +4261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -3538,16 +4269,16 @@
         <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E70" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
@@ -3556,7 +4287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -3564,13 +4295,13 @@
         <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E71" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F71" t="s">
         <v>425</v>
@@ -3579,10 +4310,16 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I71" t="s">
+        <v>432</v>
+      </c>
+      <c r="J71" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -3590,25 +4327,25 @@
         <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E72" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F72" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -3616,13 +4353,13 @@
         <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E73" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F73" t="s">
         <v>426</v>
@@ -3631,10 +4368,13 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -3642,16 +4382,16 @@
         <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E74" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3660,7 +4400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -3668,16 +4408,16 @@
         <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E75" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -3686,7 +4426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3694,16 +4434,16 @@
         <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D76" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F76" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -3712,7 +4452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -3720,25 +4460,25 @@
         <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F77" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -3746,25 +4486,28 @@
         <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E78" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F78" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I78" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -3772,25 +4515,25 @@
         <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D79" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E79" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F79" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -3798,13 +4541,13 @@
         <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E80" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F80" t="s">
         <v>427</v>
@@ -3813,10 +4556,13 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -3824,13 +4570,13 @@
         <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F81" t="s">
         <v>428</v>
@@ -3839,10 +4585,13 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I81" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -3850,25 +4599,25 @@
         <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D82" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="E82" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="F82" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -3876,16 +4625,16 @@
         <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E83" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F83" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
@@ -3894,7 +4643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -3902,16 +4651,16 @@
         <v>190</v>
       </c>
       <c r="C84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E84" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F84" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -3920,33 +4669,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E85" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F85" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I85" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -3954,16 +4706,16 @@
         <v>192</v>
       </c>
       <c r="C86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E86" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F86" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -3972,7 +4724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -3980,16 +4732,16 @@
         <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D87" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E87" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F87" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -3998,7 +4750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -4006,25 +4758,28 @@
         <v>194</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E88" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F88" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="I88" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -4032,16 +4787,16 @@
         <v>195</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D89" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E89" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -4050,7 +4805,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -4058,16 +4813,16 @@
         <v>196</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E90" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4076,7 +4831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -4084,16 +4839,16 @@
         <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E91" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F91" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -4102,7 +4857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -4110,25 +4865,28 @@
         <v>198</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D92" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E92" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F92" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="I92" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -4136,16 +4894,16 @@
         <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D93" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E93" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F93" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4154,7 +4912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -4162,16 +4920,16 @@
         <v>200</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E94" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F94" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -4180,7 +4938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -4188,16 +4946,16 @@
         <v>201</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D95" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E95" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F95" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -4206,7 +4964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -4214,16 +4972,16 @@
         <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E96" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F96" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
@@ -4240,16 +4998,16 @@
         <v>203</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E97" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F97" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
@@ -4266,16 +5024,16 @@
         <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D98" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E98" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F98" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -4292,16 +5050,16 @@
         <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E99" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F99" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
@@ -4318,16 +5076,16 @@
         <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E100" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F100" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
@@ -4344,16 +5102,16 @@
         <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E101" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F101" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
